--- a/BOM/materialliste_microcontroller_board.xlsx
+++ b/BOM/materialliste_microcontroller_board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\uC_Board\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studmswch-my.sharepoint.com/personal/filmon_russom_stud_msw_ch/Documents/MSW/BFS-EK20/C_Board/git/uC_Board/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D34774-DECC-4E3B-BAA8-101F69E20A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{83D34774-DECC-4E3B-BAA8-101F69E20A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29A72A96-5D9F-487A-A282-5CE5DD0CCC01}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEAA252D-CCA8-493C-A99A-AAF8A4EEE89B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEAA252D-CCA8-493C-A99A-AAF8A4EEE89B}"/>
   </bookViews>
   <sheets>
     <sheet name="Stückliste" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     </r>
   </si>
   <si>
-    <t>71-CRCW12061K00FKEB</t>
-  </si>
-  <si>
     <r>
       <t>2k</t>
     </r>
@@ -139,9 +136,6 @@
       </rPr>
       <t>Ω</t>
     </r>
-  </si>
-  <si>
-    <t>71-CRCW12062K00FKEB</t>
   </si>
   <si>
     <r>
@@ -158,13 +152,7 @@
     </r>
   </si>
   <si>
-    <t>71-CRCW120610K0FKEB</t>
-  </si>
-  <si>
     <t>100kΩ</t>
-  </si>
-  <si>
-    <t>71-CRCW1206100KFKEB</t>
   </si>
   <si>
     <t>Elektrolytkondensator</t>
@@ -185,13 +173,7 @@
     <t>1uF 50V</t>
   </si>
   <si>
-    <t>77-VJ1206V105MXATBC</t>
-  </si>
-  <si>
     <t>100nF  50V</t>
-  </si>
-  <si>
-    <t>77-VJ1206V104ZXAPBC</t>
   </si>
   <si>
     <t>12pF  50V</t>
@@ -689,9 +671,6 @@
     <t>100uF  16V</t>
   </si>
   <si>
-    <t xml:space="preserve">652-CR1206FX-1500ELF </t>
-  </si>
-  <si>
     <t>20, 50 bestellt</t>
   </si>
   <si>
@@ -802,6 +781,27 @@
   <si>
     <t>LEDCLX6E-FKC-CH1M1D1BB7C3D3</t>
   </si>
+  <si>
+    <t>279-CRG0805F10K/10</t>
+  </si>
+  <si>
+    <t>652-CR0805JW-202ELF</t>
+  </si>
+  <si>
+    <t>667-ERJ-UP6F1001V</t>
+  </si>
+  <si>
+    <t>80-C0805X105K5RAUTO</t>
+  </si>
+  <si>
+    <t>652-CHV0805AFX1003LF</t>
+  </si>
+  <si>
+    <t>80-C0805R104J5RACTU</t>
+  </si>
+  <si>
+    <t>755-KTR10EZPJ151</t>
+  </si>
 </sst>
 </file>
 
@@ -897,7 +897,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -907,6 +907,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1070,7 +1076,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1316,6 +1322,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="2" builtinId="26"/>
@@ -1323,48 +1339,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="72">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1632,6 +1606,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2220,9 +2236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FD4D50-7A26-44A2-B50E-5F0DC5FBBEB7}">
   <dimension ref="A1:P999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2294,7 +2310,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="90" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -2305,19 +2321,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G2" s="68" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J2" s="65"/>
       <c r="K2" s="69">
@@ -2348,19 +2364,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="75" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H3" s="73" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J3" s="76"/>
       <c r="K3" s="77">
@@ -2391,19 +2407,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F4" s="74" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H4" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="75" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J4" s="78"/>
       <c r="K4" s="77">
@@ -2434,10 +2450,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G5" s="57" t="s">
         <v>22</v>
@@ -2446,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="79" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J5" s="80"/>
       <c r="K5" s="77">
@@ -2477,19 +2493,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J6" s="78"/>
       <c r="K6" s="77">
@@ -2520,17 +2536,17 @@
         <v>1</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F7" s="74" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G7" s="57"/>
       <c r="H7" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="81" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J7" s="78"/>
       <c r="K7" s="77">
@@ -2561,18 +2577,18 @@
         <v>1</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F8" s="74" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="73" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I8" s="75"/>
       <c r="J8" s="82" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K8" s="77">
         <f>0.93+0.79</f>
@@ -2603,18 +2619,18 @@
         <v>1</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F9" s="74" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G9" s="75"/>
       <c r="H9" s="73" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I9" s="75"/>
       <c r="J9" s="82" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K9" s="77">
         <f>1.08+2.19/10</f>
@@ -2645,20 +2661,20 @@
         <v>1</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="73" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J10" s="82" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K10" s="77">
         <v>0.53</v>
@@ -2688,17 +2704,17 @@
         <v>1</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F11" s="74" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J11" s="73"/>
       <c r="K11" s="77">
@@ -2729,14 +2745,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F12" s="83" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G12" s="57"/>
       <c r="H12" s="73" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I12" s="75">
         <v>1215771</v>
@@ -2770,16 +2786,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F13" s="74" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H13" s="73" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I13" s="75">
         <v>1830935</v>
@@ -2813,16 +2829,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G14" s="75" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H14" s="73" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I14" s="75">
         <v>2328470</v>
@@ -2850,7 +2866,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="73" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
@@ -2858,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F15" s="83" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H15" s="73" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I15" s="75">
         <v>3704725</v>
@@ -2890,12 +2906,12 @@
       </c>
       <c r="O15" s="57"/>
       <c r="P15" s="91" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="73" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
@@ -2903,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F16" s="83" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H16" s="73" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I16" s="75">
         <v>3704907</v>
@@ -2935,7 +2951,7 @@
       </c>
       <c r="O16" s="57"/>
       <c r="P16" s="91" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -2946,19 +2962,19 @@
         <v>1</v>
       </c>
       <c r="E17" s="75" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F17" s="74" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H17" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="75" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J17" s="78"/>
       <c r="K17" s="77">
@@ -2989,19 +3005,19 @@
         <v>1</v>
       </c>
       <c r="E18" s="75" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G18" s="57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H18" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="75" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J18" s="78"/>
       <c r="K18" s="77">
@@ -3032,10 +3048,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="83" t="s">
         <v>67</v>
-      </c>
-      <c r="F19" s="83" t="s">
-        <v>73</v>
       </c>
       <c r="G19" s="57" t="s">
         <v>22</v>
@@ -3044,7 +3060,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="75" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J19" s="78"/>
       <c r="K19" s="77">
@@ -3075,17 +3091,17 @@
         <v>1</v>
       </c>
       <c r="E20" s="75" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F20" s="74" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G20" s="84"/>
       <c r="H20" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J20" s="78"/>
       <c r="K20" s="77">
@@ -3116,19 +3132,19 @@
         <v>1</v>
       </c>
       <c r="E21" s="75" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F21" s="83" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H21" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="75" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J21" s="78"/>
       <c r="K21" s="77">
@@ -3159,19 +3175,19 @@
         <v>1</v>
       </c>
       <c r="E22" s="75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G22" s="86" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H22" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J22" s="78"/>
       <c r="K22" s="87">
@@ -3202,19 +3218,19 @@
         <v>1</v>
       </c>
       <c r="E23" s="75" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G23" s="57" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H23" s="73" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I23" s="75" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J23" s="78"/>
       <c r="K23" s="87">
@@ -3245,18 +3261,18 @@
         <v>1</v>
       </c>
       <c r="E24" s="75" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F24" s="83" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G24" s="57"/>
       <c r="H24" s="73" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I24" s="75"/>
       <c r="J24" s="82" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K24" s="87">
         <f>(1.7+1.82)/2</f>
@@ -3287,10 +3303,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="75" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F25" s="74" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G25" s="75">
         <v>1206</v>
@@ -3299,7 +3315,7 @@
         <v>18</v>
       </c>
       <c r="I25" s="88" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J25" s="78"/>
       <c r="K25" s="77">
@@ -3330,19 +3346,19 @@
         <v>2</v>
       </c>
       <c r="E26" s="84" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G26" s="86" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H26" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="75" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J26" s="78"/>
       <c r="K26" s="87">
@@ -3373,19 +3389,19 @@
         <v>3</v>
       </c>
       <c r="E27" s="75" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F27" s="74" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G27" s="57" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H27" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I27" s="75" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J27" s="78"/>
       <c r="K27" s="77">
@@ -3462,16 +3478,16 @@
         <v>20</v>
       </c>
       <c r="F29" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="57" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="G29" s="93" t="s">
+        <v>36</v>
       </c>
       <c r="H29" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="75" t="s">
-        <v>29</v>
+      <c r="I29" s="94" t="s">
+        <v>237</v>
       </c>
       <c r="J29" s="78"/>
       <c r="K29" s="77">
@@ -3505,23 +3521,23 @@
         <v>20</v>
       </c>
       <c r="F30" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="57" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="G30" s="93" t="s">
+        <v>36</v>
       </c>
       <c r="H30" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="75" t="s">
-        <v>27</v>
+      <c r="I30" s="94" t="s">
+        <v>238</v>
       </c>
       <c r="J30" s="78"/>
       <c r="K30" s="77">
         <v>3.1E-2</v>
       </c>
       <c r="L30" s="70">
-        <f t="shared" si="0"/>
+        <f>IF(OR(K30=0,D30=0),"",D30*K30)</f>
         <v>6.2E-2</v>
       </c>
       <c r="M30" s="71">
@@ -3545,19 +3561,19 @@
         <v>2</v>
       </c>
       <c r="E31" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="57" t="s">
         <v>36</v>
-      </c>
-      <c r="F31" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>42</v>
       </c>
       <c r="H31" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="75" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J31" s="78"/>
       <c r="K31" s="77">
@@ -3588,19 +3604,19 @@
         <v>2</v>
       </c>
       <c r="E32" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="57" t="s">
         <v>36</v>
-      </c>
-      <c r="F32" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>42</v>
       </c>
       <c r="H32" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="75" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J32" s="78"/>
       <c r="K32" s="77">
@@ -3631,19 +3647,19 @@
         <v>2</v>
       </c>
       <c r="E33" s="75" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F33" s="74" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H33" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="75" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J33" s="78"/>
       <c r="K33" s="77">
@@ -3674,19 +3690,19 @@
         <v>3</v>
       </c>
       <c r="E34" s="75" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G34" s="57" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H34" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="64" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J34" s="78"/>
       <c r="K34" s="77">
@@ -3722,14 +3738,14 @@
       <c r="F35" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="57" t="s">
-        <v>22</v>
+      <c r="G35" s="93" t="s">
+        <v>36</v>
       </c>
       <c r="H35" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="75" t="s">
-        <v>25</v>
+      <c r="I35" s="94" t="s">
+        <v>239</v>
       </c>
       <c r="J35" s="78"/>
       <c r="K35" s="77">
@@ -3760,19 +3776,19 @@
         <v>3</v>
       </c>
       <c r="E36" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="93" t="s">
         <v>36</v>
-      </c>
-      <c r="F36" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="57" t="s">
-        <v>22</v>
       </c>
       <c r="H36" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="75" t="s">
-        <v>38</v>
+      <c r="I36" s="94" t="s">
+        <v>240</v>
       </c>
       <c r="J36" s="78"/>
       <c r="K36" s="77">
@@ -3803,19 +3819,19 @@
         <v>4</v>
       </c>
       <c r="E37" s="75" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F37" s="74" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G37" s="57" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H37" s="73" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I37" s="75" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J37" s="73"/>
       <c r="K37" s="77">
@@ -3847,16 +3863,16 @@
         <v>4</v>
       </c>
       <c r="E38" s="57" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F38" s="74" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G38" s="57" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H38" s="73" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I38" s="75">
         <v>3801305</v>
@@ -3890,19 +3906,19 @@
         <v>4</v>
       </c>
       <c r="E39" s="75" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F39" s="74" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G39" s="57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H39" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="75" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J39" s="78"/>
       <c r="K39" s="77">
@@ -3934,19 +3950,19 @@
         <v>20</v>
       </c>
       <c r="E40" s="75" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F40" s="74" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G40" s="57" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H40" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="64" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J40" s="78"/>
       <c r="K40" s="77">
@@ -3977,19 +3993,19 @@
         <v>8</v>
       </c>
       <c r="E41" s="75" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F41" s="74" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G41" s="57" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H41" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I41" s="75" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J41" s="78"/>
       <c r="K41" s="77">
@@ -4020,18 +4036,18 @@
         <v>8</v>
       </c>
       <c r="E42" s="75" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F42" s="74" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G42" s="75"/>
       <c r="H42" s="73" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I42" s="75"/>
       <c r="J42" s="82" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K42" s="77">
         <f>6.48/10</f>
@@ -4065,16 +4081,16 @@
         <v>20</v>
       </c>
       <c r="F43" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="57" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="G43" s="93" t="s">
+        <v>36</v>
       </c>
       <c r="H43" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="75" t="s">
-        <v>31</v>
+      <c r="I43" s="94" t="s">
+        <v>241</v>
       </c>
       <c r="J43" s="78"/>
       <c r="K43" s="77">
@@ -4101,23 +4117,23 @@
       <c r="A44" s="73"/>
       <c r="B44" s="73"/>
       <c r="C44" s="73"/>
-      <c r="D44" s="74">
-        <v>15</v>
+      <c r="D44" s="95">
+        <v>16</v>
       </c>
       <c r="E44" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="93" t="s">
         <v>36</v>
-      </c>
-      <c r="F44" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="57" t="s">
-        <v>22</v>
       </c>
       <c r="H44" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="75" t="s">
-        <v>40</v>
+      <c r="I44" s="94" t="s">
+        <v>242</v>
       </c>
       <c r="J44" s="78"/>
       <c r="K44" s="77">
@@ -4125,15 +4141,15 @@
       </c>
       <c r="L44" s="70">
         <f t="shared" si="0"/>
-        <v>0.255</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="M44" s="71">
         <f>IF(OR(D44="",'Anzahl &amp; Preis'!$B$1=""),"",'Anzahl &amp; Preis'!$B$1*D44)</f>
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="N44" s="70">
         <f>IF(OR(L44="",'Anzahl &amp; Preis'!$B$1=""),"",'Anzahl &amp; Preis'!$B$1*L44)</f>
-        <v>8.9250000000000007</v>
+        <v>9.5200000000000014</v>
       </c>
       <c r="O44" s="57"/>
       <c r="P44" s="91">
@@ -4148,10 +4164,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="75" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F45" s="83" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G45" s="57" t="s">
         <v>22</v>
@@ -4160,7 +4176,7 @@
         <v>18</v>
       </c>
       <c r="I45" s="75" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J45" s="78"/>
       <c r="K45" s="77">
@@ -4196,14 +4212,14 @@
       <c r="F46" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="57" t="s">
-        <v>22</v>
+      <c r="G46" s="93" t="s">
+        <v>36</v>
       </c>
       <c r="H46" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="64" t="s">
-        <v>206</v>
+      <c r="I46" s="96" t="s">
+        <v>243</v>
       </c>
       <c r="J46" s="78"/>
       <c r="K46" s="77">
@@ -4228,7 +4244,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="73" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B47" s="73"/>
       <c r="C47" s="73"/>
@@ -4236,22 +4252,22 @@
         <v>1</v>
       </c>
       <c r="E47" s="75" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F47" s="74" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G47" s="75" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H47" s="73" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I47" s="64">
         <v>2407171</v>
       </c>
       <c r="J47" s="78" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K47" s="77">
         <v>55.64</v>
@@ -4270,12 +4286,12 @@
       </c>
       <c r="O47" s="57"/>
       <c r="P47" s="91" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="73" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B48" s="73"/>
       <c r="C48" s="73"/>
@@ -4283,20 +4299,20 @@
         <v>2</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F48" s="85" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G48" s="86"/>
       <c r="H48" s="73" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I48" s="64" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J48" s="78" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K48" s="87">
         <v>0.69</v>
@@ -4315,12 +4331,12 @@
       </c>
       <c r="O48" s="57"/>
       <c r="P48" s="91" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="73" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B49" s="73"/>
       <c r="C49" s="73"/>
@@ -4328,20 +4344,20 @@
         <v>1</v>
       </c>
       <c r="E49" s="57" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F49" s="64" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G49" s="57"/>
       <c r="H49" s="73" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I49" s="64" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J49" s="78" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K49" s="77">
         <f>33/30.8*0.1</f>
@@ -4361,12 +4377,12 @@
       </c>
       <c r="O49" s="57"/>
       <c r="P49" s="91" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="73" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B50" s="73"/>
       <c r="C50" s="73"/>
@@ -4374,20 +4390,20 @@
         <v>1</v>
       </c>
       <c r="E50" s="57" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F50" s="64" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G50" s="57"/>
       <c r="H50" s="73" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I50" s="75" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J50" s="78" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K50" s="77">
         <v>1.24</v>
@@ -4406,7 +4422,7 @@
       </c>
       <c r="O50" s="57"/>
       <c r="P50" s="91" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -4417,14 +4433,14 @@
         <v>0.5</v>
       </c>
       <c r="E51" s="75" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F51" s="74" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G51" s="57"/>
       <c r="H51" s="73" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I51" s="75"/>
       <c r="J51" s="78"/>
@@ -29161,7 +29177,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(Stückliste!L2:L999)</f>
-        <v>147.31314285714288</v>
+        <v>147.3301428571429</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
@@ -29171,7 +29187,7 @@
       </c>
       <c r="B3" s="6">
         <f>SUM(Stückliste!N2:N999)</f>
-        <v>5155.96</v>
+        <v>5156.5549999999994</v>
       </c>
     </row>
   </sheetData>
@@ -29243,7 +29259,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -29251,16 +29267,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G2" s="20">
         <v>1206</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I2" s="20">
         <v>1841062</v>
@@ -29285,7 +29301,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -29293,19 +29309,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="18">
@@ -29327,7 +29343,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -29335,16 +29351,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I4" s="9">
         <v>1568023</v>
@@ -29369,7 +29385,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -29377,14 +29393,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="32" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I5" s="9">
         <v>2520785</v>
@@ -29409,7 +29425,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -29417,19 +29433,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="12">
@@ -29451,7 +29467,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -29459,19 +29475,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="12">
@@ -29493,7 +29509,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -29501,14 +29517,14 @@
         <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="10"/>
       <c r="H8" s="32"/>
       <c r="I8" s="9"/>
       <c r="J8" s="33" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K8" s="18">
         <v>6.5</v>
@@ -29529,7 +29545,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -29537,10 +29553,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>22</v>
@@ -29549,7 +29565,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="18">
@@ -29571,7 +29587,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -29579,17 +29595,17 @@
         <v>0</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H10" s="32" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="18">
@@ -29611,7 +29627,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -29619,16 +29635,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I11" s="9">
         <v>634021</v>
@@ -29653,7 +29669,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -29661,14 +29677,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="32" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I12" s="9">
         <v>361662</v>
@@ -29693,7 +29709,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -29701,19 +29717,19 @@
         <v>1</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H13" s="32" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="12">
@@ -29735,7 +29751,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -29743,19 +29759,19 @@
         <v>3</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="12">
@@ -29774,12 +29790,12 @@
         <v>13.125</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -29821,7 +29837,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -29829,14 +29845,14 @@
         <v>1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="32" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I16" s="9">
         <v>632917</v>
@@ -29858,12 +29874,12 @@
         <v>30.765000000000001</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -29871,19 +29887,19 @@
         <v>4</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H17" s="32" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="12">
@@ -29905,7 +29921,7 @@
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -29913,19 +29929,19 @@
         <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="12">
@@ -29947,7 +29963,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -29955,16 +29971,16 @@
         <v>1</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I19" s="20">
         <v>17390099</v>
@@ -29986,12 +30002,12 @@
         <v>11.200000000000001</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -29999,19 +30015,19 @@
         <v>1</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="12">
@@ -30030,7 +30046,7 @@
         <v>56.7</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.3">
@@ -30041,19 +30057,19 @@
         <v>1</v>
       </c>
       <c r="E21" s="75" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F21" s="83" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H21" s="73" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="75" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J21" s="78"/>
       <c r="K21" s="87">
@@ -55649,26 +55665,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",O21)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="5" priority="6" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="30" priority="6" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",O21))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>(ISBLANK(A21)=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>P21&lt;M21</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>P21&gt;=M21</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55702,58 +55718,58 @@
         <v>7</v>
       </c>
       <c r="D1" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="M1" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="N1" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="O1" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="P1" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="Q1" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="R1" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="S1" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="T1" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="U1" s="38" t="s">
         <v>234</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="T1" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="U1" s="38" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -55761,10 +55777,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -55790,10 +55806,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -55819,10 +55835,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -55848,10 +55864,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -55877,10 +55893,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
@@ -55906,10 +55922,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -55935,10 +55951,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
@@ -55964,10 +55980,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>73</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
@@ -55993,10 +56009,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
@@ -56022,10 +56038,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -56051,10 +56067,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
@@ -56080,10 +56096,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
@@ -56109,10 +56125,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
@@ -56138,10 +56154,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
@@ -56167,10 +56183,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
@@ -56196,7 +56212,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="39"/>
@@ -56224,7 +56240,7 @@
         <v>58</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="50">
@@ -56344,7 +56360,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="38"/>
@@ -56369,7 +56385,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="38"/>
@@ -56394,10 +56410,10 @@
     </row>
     <row r="23" spans="1:21" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C23" s="53"/>
       <c r="D23" s="54">
@@ -56480,7 +56496,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="40" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B25" s="45"/>
       <c r="C25" s="42"/>
@@ -56505,7 +56521,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -56530,10 +56546,10 @@
     </row>
     <row r="27" spans="1:21" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="54">
@@ -61337,125 +61353,125 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D2:E18 K2:U18 G2:I18">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>$A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3 K3:S3 G3:I3">
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>$A3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E18 K2:U18 G2:I18">
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="lessThan">
       <formula>$A2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="greaterThan">
       <formula>$A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17 K17:S17 G17:I17">
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>$A17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17 K17:S17 G17:I17">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
       <formula>$A17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
       <formula>$A17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23 K23:U23 G23:I23">
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:E27 K27:U27 G27:I27">
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J18">
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>$A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>$A3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J18">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>$A2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
       <formula>$A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>$A17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
       <formula>$A17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
       <formula>$A17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F18">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>$A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>$A3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F18">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>$A2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>$A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>$A17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>$A17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>$A17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
